--- a/biology/Médecine/Abcès_artificiel/Abcès_artificiel.xlsx
+++ b/biology/Médecine/Abcès_artificiel/Abcès_artificiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abc%C3%A8s_artificiel</t>
+          <t>Abcès_artificiel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abcès artificiel est une technique médicale utilisée au début du XXe siècle pour soigner certaines maladies infectieuses, en créant artificiellement un abcès par l'injection hypodermique d'essence de térébenthine. Cette technique n'est plus utilisée car sans intérêt et pouvant entraîner des pathologies supplémentaires.
-L'abcès artificiel peut aussi être désigné par « abcès de Fochier » ou encore « abcès de fixation »[1].
+L'abcès artificiel peut aussi être désigné par « abcès de Fochier » ou encore « abcès de fixation ».
 Au sens figuré, un abcès de fixation est un événement malheureux, mais qui évite que des événements plus graves ne surviennent.
 </t>
         </is>
